--- a/datas/QCD.xlsx
+++ b/datas/QCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\QCD_pyTest\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\QJMJ_Test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B199AE19-666B-4048-9545-96C34F71A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C7D88-6E83-456B-A260-DD8B489FB2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="add" sheetId="5" r:id="rId5"/>
     <sheet name="audit" sheetId="6" r:id="rId6"/>
     <sheet name="invest" sheetId="7" r:id="rId7"/>
+    <sheet name="safe" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="225">
   <si>
     <t>case_id</t>
   </si>
@@ -226,6 +227,9 @@
     <t>/member/recharge</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","amount":10000}</t>
+  </si>
+  <si>
     <t>select leave_amount from futureloan.member t  where t.mobile_phone='{}'</t>
   </si>
   <si>
@@ -397,9 +401,15 @@
     <t>/loan/add</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#", "title":"pytest接口自动化测试数据","amount":20000.00,"loan_rate":12.0,"loan_term":12,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>新增的用户id为空</t>
   </si>
   <si>
+    <t>{"title":"接口自动化测试数据","amount":200.00,"loan_rate":12.0,"loan_term":12,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>{"code": 1,"msg": "用户id为空"}</t>
   </si>
   <si>
@@ -415,6 +425,9 @@
     <t>新增项目成功--借款金额为整数且借款期限为月</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#", "title":"pytest测试数据","amount":20000,"loan_rate":12.0,"loan_term":12,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>新增借款金额为空</t>
   </si>
   <si>
@@ -529,9 +542,18 @@
     <t>/loan/audit</t>
   </si>
   <si>
+    <t>{"loan_id": "#loan_id#","approved_or_not": "true"}</t>
+  </si>
+  <si>
+    <t>select count(1) as count from loan t where t.id="#loan_id#" and t.`status`=2</t>
+  </si>
+  <si>
     <t>已经审核成功项目再审核为false</t>
   </si>
   <si>
+    <t>{"loan_id": "#pass_loan_id#","approved_or_not": "true"}</t>
+  </si>
+  <si>
     <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
   </si>
   <si>
@@ -559,6 +581,9 @@
     <t>{"loan_id": "#loan_id#","approved_or_not": "false"}</t>
   </si>
   <si>
+    <t>select count(1) as count from loan t where t.id="#loan_id#" and t.`status`=5</t>
+  </si>
+  <si>
     <t>审核项目id不存在</t>
   </si>
   <si>
@@ -577,6 +602,9 @@
     <t>/member/invest</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":100.00}</t>
+  </si>
+  <si>
     <t>投资用户id为空</t>
   </si>
   <si>
@@ -616,115 +644,96 @@
     <t>投资金额为3位小数</t>
   </si>
   <si>
+    <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":1000.233}</t>
+  </si>
+  <si>
     <t>项目状态为1审核中</t>
   </si>
   <si>
+    <t>{"member_id":"83","loan_id":"14","amount":1000.00}</t>
+  </si>
+  <si>
     <t>{"code": 2,"msg": "该项目不在竞标中状态"}</t>
   </si>
   <si>
+    <t>select t.id from loan t where t.status=1 limit 1</t>
+  </si>
+  <si>
     <t>s查出的id给data里的loan_id</t>
   </si>
   <si>
     <t>项目状态为5审核不通过</t>
   </si>
   <si>
+    <t>{"member_id":"14","loan_id":"6","amount":1000.00}</t>
+  </si>
+  <si>
     <t>select t.id from loan t where t.status=5 limit 1</t>
   </si>
   <si>
     <t>项目状态为3还款中</t>
   </si>
   <si>
+    <t>{"member_id":"4","loan_id":"1","amount":1000.00}</t>
+  </si>
+  <si>
     <t>select t.id from loan t where t.status=3 limit 1</t>
   </si>
   <si>
     <t>项目状态为4还款完成</t>
   </si>
   <si>
+    <t>{"member_id":"13959","loan_id":"3808","amount":1000.00}</t>
+  </si>
+  <si>
     <t>select t.id from loan t where t.status=4 limit 1</t>
   </si>
   <si>
-    <t>/loan/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"OK"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"loan_id": "#pass_loan_id#","approved_or_not": "true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"loan_id": "#loan_id#","approved_or_not": "true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(1) as count from loan t where t.id="#loan_id#" and t.`status`=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(1) as count from loan t where t.id="#loan_id#" and t.`status`=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s查出的id给data里的loan_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select t.id from loan t where t.status=1 limit 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":1000.233}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"83","loan_id":"14","amount":1000.00}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"14","loan_id":"6","amount":1000.00}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"4","loan_id":"1","amount":1000.00}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"13959","loan_id":"3808","amount":1000.00}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","amount":10000}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#", "title":"pytest接口自动化测试数据","amount":20000.00,"loan_rate":12.0,"loan_term":12,"loan_date_type":1,"bidding_days":5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"title":"接口自动化测试数据","amount":200.00,"loan_rate":12.0,"loan_term":12,"loan_date_type":1,"bidding_days":5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#", "title":"pytest测试数据","amount":20000,"loan_rate":12.0,"loan_term":12,"loan_date_type":1,"bidding_days":5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","loan_id":"#loan_id#","amount":100.00}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/monitorSecurityPolicies</t>
+  </si>
+  <si>
+    <t>{"sort": "id,asc",
+"page": 0,
+"size": 10}</t>
+  </si>
+  <si>
+    <t>{"totalElements":8}</t>
+  </si>
+  <si>
+    <t>查询安全策略</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,18 +746,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -790,29 +787,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -820,8 +820,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -918,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1093,11 +1099,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1109,359 +1110,359 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
-    <col min="8" max="22" width="8.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="7.08203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="64.08203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="2" customWidth="1"/>
+    <col min="8" max="22" width="8.6640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1470,67 +1471,67 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="54.25" style="1" customWidth="1"/>
-    <col min="8" max="22" width="8.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.25" style="2" customWidth="1"/>
+    <col min="8" max="22" width="8.6640625" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1538,25 +1539,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H3" t="s">
@@ -1564,25 +1565,25 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H4" t="s">
@@ -1590,25 +1591,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H5" t="s">
@@ -1616,25 +1617,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H6" t="s">
@@ -1642,25 +1643,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
@@ -1668,7 +1669,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1681,7 +1682,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -1691,32 +1692,32 @@
     <col min="9" max="9" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1730,20 +1731,20 @@
       <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1751,22 +1752,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1777,22 +1778,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1803,22 +1804,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1829,22 +1830,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1855,22 +1856,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1881,25 +1882,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>66</v>
+      <c r="I8" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1907,25 +1908,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>66</v>
+      <c r="I9" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1933,29 +1934,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1968,7 +1969,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.4140625" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
@@ -1978,25 +1979,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2008,21 +2009,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H2">
@@ -2034,21 +2035,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H3">
@@ -2060,21 +2061,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H4">
@@ -2086,21 +2087,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H5">
@@ -2112,22 +2113,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>100</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2135,22 +2136,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>103</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2158,22 +2159,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>106</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2181,22 +2182,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>109</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2204,22 +2205,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>112</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2227,22 +2228,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>115</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2250,22 +2251,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>106</v>
+      <c r="E12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2273,28 +2274,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>103</v>
+      <c r="E13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2306,482 +2307,482 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="9" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="43.4140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="43.4140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="32.75" style="11" customWidth="1"/>
     <col min="8" max="14" width="8.6640625" style="9" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
+      <c r="C2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="8" t="s">
+    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="D18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2793,42 +2794,42 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2837,48 +2838,48 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>167</v>
+      <c r="B3" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2886,22 +2887,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2909,22 +2910,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>174</v>
+        <v>180</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2932,25 +2933,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2958,26 +2959,26 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2986,11 +2987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.9140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
@@ -3002,32 +3003,32 @@
     <col min="10" max="10" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3036,24 +3037,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3062,22 +3063,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3085,22 +3086,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3108,22 +3109,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3131,22 +3132,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3154,22 +3155,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3177,28 +3178,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3206,28 +3207,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3235,28 +3236,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
         <v>216</v>
       </c>
-      <c r="G10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" t="s">
-        <v>202</v>
-      </c>
       <c r="J10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3264,32 +3265,104 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.4140625" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.9140625" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="29.08203125" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/datas/QCD.xlsx
+++ b/datas/QCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\QJMJ_Test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C7D88-6E83-456B-A260-DD8B489FB2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F446A5-686E-484A-B13D-0E83E83FB7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="225">
   <si>
     <t>case_id</t>
   </si>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3297,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3315,7 +3315,7 @@
     <col min="8" max="8" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3340,8 +3340,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>224</v>
       </c>
@@ -3359,6 +3362,9 @@
       </c>
       <c r="G2" s="3" t="s">
         <v>223</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/datas/QCD.xlsx
+++ b/datas/QCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\QJMJ_Test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F446A5-686E-484A-B13D-0E83E83FB7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30FBDA4-29FE-485A-9B16-D37A3E881F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="226">
   <si>
     <t>case_id</t>
   </si>
@@ -704,6 +704,10 @@
   </si>
   <si>
     <t>查询安全策略</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT id from monitor_security_group</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3300,7 +3304,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3344,7 +3348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>224</v>
       </c>
@@ -3363,8 +3367,8 @@
       <c r="G2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
+      <c r="I2" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/datas/QCD.xlsx
+++ b/datas/QCD.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\QJMJ_Test\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E92983-20E3-403C-950E-A9914787F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB8763-0319-46BC-822C-824083ADC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="793" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="select_safe" sheetId="8" r:id="rId4"/>
-    <sheet name="update_safe" sheetId="12" r:id="rId5"/>
-    <sheet name="delete_safe" sheetId="13" r:id="rId6"/>
-    <sheet name="add_safe" sheetId="11" r:id="rId7"/>
+    <sheet name="delete_dept" sheetId="17" r:id="rId4"/>
+    <sheet name="select" sheetId="8" r:id="rId5"/>
+    <sheet name="update" sheetId="12" r:id="rId6"/>
+    <sheet name="delete" sheetId="13" r:id="rId7"/>
+    <sheet name="add" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="149">
   <si>
     <t>case_id</t>
   </si>
@@ -379,26 +380,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"policyName":"#paramDC#","policyDesc":"fafasfsdfsadfsadfsadfsad"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"policyName":"#paramDC#"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT id from monitor_security_group WHERE policy_name LIKE '崔%'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT id from monitor_security_group WHERE policy_desc LIKE '大'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT id from monitor_security_group WHERE policy_name LIKE '崔霞'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改安全策略</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -407,10 +392,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"policyName":"#policyName#"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT policy_name from monitor_security_group where id = #id#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,15 +408,162 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"policy_name":None}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT policy_name from monitor_security_group WHERE id = #id#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"#id#","policyName":"#policyName#","policyDesc":"#policyDesc#","securityPolicies":[{"messageId":"zy","messageName":"系统资源监控","policyStatus":"true"},{"messageId":"ap","messageName":"应用程序监控","policyStatus":"false"},{"messageId":"pr","messageName":"进程监控","policyStatus":"false"},{"messageId":"sv","messageName":"系统服务监控","policyStatus":"false"},{"messageId":"np","messageName":"网络端口监控","policyStatus":"false"}]}</t>
+    <t>SELECT id from monitor_security_group WHERE policy_name LIKE '%崔霞%'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT id from monitor_security_group WHERE policy_name LIKE '%崔%'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dept?page=0&amp;size=10&amp;sort=id,desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT dept_id from sys_dept WHERE pid is NULL</t>
+  </si>
+  <si>
+    <t>/api/dept?page=0&amp;size=10&amp;sort=id,desc&amp;name=吕秀兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page": 0,
+"size": 10,
+"sort": "id,desc",
+"name": "吕秀兰"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询部门精准搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT dept_id from sys_dept WHERE name = '吕秀兰'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dept?page=0&amp;size=10&amp;sort=id,desc&amp;name=吕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page": 0,
+"size": 11,
+"sort": "id,desc",
+"name": "吕"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT dept_id from sys_dept WHERE name like '%吕%'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询部门模糊搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dept?page=0&amp;size=10&amp;sort=id,desc&amp;createTime=2022-12-01 00:00:00&amp;createTime=2022-12-30 23:59:59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'page': 0
+'size': 10
+'sort': 'id,desc'
+'createTime': '2022-12-01 00:00:00'
+'createTime': '2022-12-30 23:59:59'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT dept_id from sys_dept WHERE create_time BETWEEN '2022-12-01 00:00:00' AND '2022-12-30 23:59:59'</t>
+  </si>
+  <si>
+    <t>查询部门日期搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"#name#"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name from sys_dept ORDER BY dept_id DESC LIMIT 1</t>
+  </si>
+  <si>
+    <t>{"id":"null",
+"name":"#name#",
+"isTop":"1",
+"subCount":0,
+"pid":"null",
+"deptSort":999,
+"enabled":"true"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name from sys_dept where dept_id = #id#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":None}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name from sys_dept WHERE dept_id = #id#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"policyName":"#name#","policyDesc":"fafasfsdfsadfsadfsadfsad"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"#id#","policyName":"#name#","policyDesc":"test","securityPolicies":[{"messageId":"zy","messageName":"系统资源监控","policyStatus":"true"},{"messageId":"ap","messageName":"应用程序监控","policyStatus":"false"},{"messageId":"pr","messageName":"进程监控","policyStatus":"false"},{"messageId":"sv","messageName":"系统服务监控","policyStatus":"false"},{"messageId":"np","messageName":"网络端口监控","policyStatus":"false"}]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"#id#",
+"name":"#name#",
+"isTop":"1",
+"subCount":0,
+"pid":"null",
+"deptSort":"12",
+"enabled":"true"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT id from monitor_security_group WHERE policy_name != "崔霞3" AND id != 1 ORDER BY RAND() LIMIT 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT dept_id from sys_dept WHERE dept_id != 1 and name != "吕秀兰" ORDER BY RAND() LIMIT 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +598,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1648,11 +1782,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200EC9E7-A32F-4F4E-9520-E3C4CB2F6B85}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1736,7 +1949,7 @@
         <v>97</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="230" customHeight="1" x14ac:dyDescent="0.3">
@@ -1759,7 +1972,7 @@
         <v>101</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="56" x14ac:dyDescent="0.3">
@@ -1782,22 +1995,346 @@
         <v>102</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="http://192.168.0.105/api/dept?page=0&amp;size=10&amp;sort=id,desc&amp;name=吕" xr:uid="{50C22857-5736-4DAD-9B40-FFD9488F1CA3}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B18AF1-2D64-44C3-954D-C43340441B06}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="60.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="182" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B18AF1-2D64-44C3-954D-C43340441B06}">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072B55EA-CF3A-4D8A-AB51-3960C9F09CA7}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="23.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="196" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="182" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF848D0E-9585-4C3B-B2FF-6B82C857A0A9}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1842,181 +2379,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072B55EA-CF3A-4D8A-AB51-3960C9F09CA7}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="60.08203125" customWidth="1"/>
-    <col min="7" max="7" width="23.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="112" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF848D0E-9585-4C3B-B2FF-6B82C857A0A9}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="60.08203125" customWidth="1"/>
-    <col min="7" max="7" width="23.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
